--- a/StructureDefinition-ext-R5-Contract.term.xlsx
+++ b/StructureDefinition-ext-R5-Contract.term.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2910,7 +2910,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:action.extension:reason.extension:concept.id</t>
@@ -2937,7 +2937,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-Contract.term.xlsx
+++ b/StructureDefinition-ext-R5-Contract.term.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14172" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14172" uniqueCount="970">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -519,7 +519,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)</t>
   </si>
   <si>
     <t>Extension.extension:type</t>
@@ -557,15 +557,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Detailed codes for the types of contract provisions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-term-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:subType</t>
   </si>
   <si>
@@ -597,12 +588,6 @@
     <t>Extension.extension:subType.value[x]</t>
   </si>
   <si>
-    <t>Detailed codes for the subtypes of contract provisions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-term-subtype-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:text</t>
   </si>
   <si>
@@ -742,12 +727,6 @@
 </t>
   </si>
   <si>
-    <t>Codes for confidentiality protection.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-security-classification-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:securityLabel.extension:category</t>
   </si>
   <si>
@@ -779,12 +758,6 @@
     <t>Extension.extension:securityLabel.extension:category.value[x]</t>
   </si>
   <si>
-    <t>Codes for policy category.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-security-category-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:securityLabel.extension:control</t>
   </si>
   <si>
@@ -816,12 +789,6 @@
     <t>Extension.extension:securityLabel.extension:control.value[x]</t>
   </si>
   <si>
-    <t>Codes for handling instructions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-security-control-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:securityLabel.url</t>
   </si>
   <si>
@@ -956,7 +923,7 @@
     <t>Extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -989,12 +956,6 @@
   </si>
   <si>
     <t>Extension.extension:offer.extension:party.extension:role.value[x]</t>
-  </si>
-  <si>
-    <t>Codes for offer participant roles.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-party-role-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:offer.extension:party.url</t>
@@ -1047,7 +1008,7 @@
     <t>Extension.extension:offer.extension:topic.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -1110,15 +1071,6 @@
     <t>Extension.extension:offer.extension:decision.value[x]</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The type of decision made by a grantor with respect to an offer made by a grantee.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v3-ActConsentDirective-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:offer.extension:decisionMode</t>
   </si>
   <si>
@@ -1148,12 +1100,6 @@
   </si>
   <si>
     <t>Extension.extension:offer.extension:decisionMode.value[x]</t>
-  </si>
-  <si>
-    <t>Codes for conveying a decision.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-decision-mode-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:offer.extension:answer</t>
@@ -1212,7 +1158,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)</t>
   </si>
   <si>
     <t>Extension.extension:offer.extension:answer.url</t>
@@ -1376,12 +1322,6 @@
     <t>Extension.extension:asset.extension:scope.value[x]</t>
   </si>
   <si>
-    <t>Codes for scoping an asset.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-assetscope-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:asset.extension:type</t>
   </si>
   <si>
@@ -1410,12 +1350,6 @@
     <t>Extension.extension:asset.extension:type.value[x]</t>
   </si>
   <si>
-    <t>Condes for the type of an asset.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-assettype-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:asset.extension:typeReference</t>
   </si>
   <si>
@@ -1478,12 +1412,6 @@
     <t>Extension.extension:asset.extension:subtype.value[x]</t>
   </si>
   <si>
-    <t>Condes for the sub-type of an asset.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-assetsubtype-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:asset.extension:relationship</t>
   </si>
   <si>
@@ -1515,12 +1443,6 @@
     <t>Extension.extension:asset.extension:relationship.value[x]</t>
   </si>
   <si>
-    <t>The class (type) of information a consent rule covers.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-content-class-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:asset.extension:context</t>
   </si>
   <si>
@@ -1602,12 +1524,6 @@
     <t>Extension.extension:asset.extension:context.extension:code.value[x]</t>
   </si>
   <si>
-    <t>Codes for the context of the asset.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-assetcontext-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:asset.extension:context.extension:text</t>
   </si>
   <si>
@@ -1705,12 +1621,6 @@
   </si>
   <si>
     <t>Extension.extension:asset.extension:periodType.value[x]</t>
-  </si>
-  <si>
-    <t>Codes for asset availability.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-asset-availability-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:asset.extension:period</t>
@@ -2029,7 +1939,7 @@
     <t>Extension.extension:asset.extension:valuedItem.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -2258,7 +2168,7 @@
     <t>Extension.extension:asset.extension:valuedItem.extension:responsible.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2460,12 +2370,6 @@
     <t>Extension.extension:action.extension:type.value[x]</t>
   </si>
   <si>
-    <t>Detailed codes for the contract action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-action-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:action.extension:subject</t>
   </si>
   <si>
@@ -2541,12 +2445,6 @@
     <t>Extension.extension:action.extension:subject.extension:role.value[x]</t>
   </si>
   <si>
-    <t>Detailed codes for the contract actor role.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-actorrole-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:action.extension:subject.url</t>
   </si>
   <si>
@@ -2587,12 +2485,6 @@
     <t>Extension.extension:action.extension:intent.value[x]</t>
   </si>
   <si>
-    <t>Detailed codes for the contract action reason.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v3-PurposeOfUse-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:action.extension:linkId</t>
   </si>
   <si>
@@ -2649,12 +2541,6 @@
     <t>Extension.extension:action.extension:status.value[x]</t>
   </si>
   <si>
-    <t>Codes for the status of a term action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contract-actionstatus-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:action.extension:context</t>
   </si>
   <si>
@@ -2683,7 +2569,7 @@
     <t>Extension.extension:action.extension:context.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-EpisodeOfCare|0.0.1-snapshot-3|EpisodeOfCare|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter|http://hl7.org/fhir/5.0/StructureDefinition/profile-EpisodeOfCare|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -2839,12 +2725,6 @@
     <t>Extension.extension:action.extension:performerType.value[x]</t>
   </si>
   <si>
-    <t>Codes for the types of action performer.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-participation-role-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:action.extension:performerRole</t>
   </si>
   <si>
@@ -2876,12 +2756,6 @@
     <t>Extension.extension:action.extension:performerRole.value[x]</t>
   </si>
   <si>
-    <t>Codes for the role of the action performer.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-security-role-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:action.extension:performer</t>
   </si>
   <si>
@@ -2913,7 +2787,7 @@
     <t>Extension.extension:action.extension:performer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -3014,8 +2888,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:action.extension:reason.extension:concept.id</t>
@@ -3033,6 +2906,9 @@
     <t>preferred</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-v3-PurposeOfUse-for-R4</t>
+  </si>
+  <si>
     <t>Extension.extension:action.extension:reason.extension:reference</t>
   </si>
   <si>
@@ -3042,8 +2918,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:action.extension:reason.extension:reference.id</t>
@@ -3058,7 +2933,7 @@
     <t>Extension.extension:action.extension:reason.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|0.0.1-snapshot-3|DiagnosticReport|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|0.0.1-snapshot-3|Questionnaire|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-QuestionnaireResponse|0.0.1-snapshot-3|QuestionnaireResponse|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|DiagnosticReport|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|Questionnaire|http://hl7.org/fhir/5.0/StructureDefinition/profile-QuestionnaireResponse|QuestionnaireResponse)
 </t>
   </si>
   <si>
@@ -3543,8 +3418,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.88671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.3203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6552,13 +6427,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -6596,13 +6471,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -6627,14 +6502,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -6703,7 +6578,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -6806,7 +6681,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -6911,7 +6786,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -6954,7 +6829,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -7016,7 +6891,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -7045,10 +6920,10 @@
         <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -7075,13 +6950,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -7119,13 +6994,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -7150,14 +7025,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -7226,7 +7101,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -7329,7 +7204,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -7434,7 +7309,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -7477,7 +7352,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -7539,7 +7414,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -7568,10 +7443,10 @@
         <v>87</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7642,13 +7517,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -7673,16 +7548,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -7751,7 +7626,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -7854,7 +7729,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -7957,13 +7832,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -7988,14 +7863,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -8064,10 +7939,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8167,10 +8042,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8272,10 +8147,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8315,7 +8190,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -8377,10 +8252,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8403,13 +8278,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8480,13 +8355,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -8511,14 +8386,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -8587,10 +8462,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8690,10 +8565,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8795,10 +8670,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8838,7 +8713,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -8900,10 +8775,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8926,13 +8801,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8959,13 +8834,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -9003,13 +8878,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -9034,14 +8909,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -9110,10 +8985,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9213,10 +9088,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9318,10 +9193,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9361,7 +9236,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -9423,10 +9298,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9449,13 +9324,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9482,13 +9357,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -9526,13 +9401,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -9557,14 +9432,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -9633,10 +9508,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9736,10 +9611,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9841,10 +9716,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9884,7 +9759,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -9946,10 +9821,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9972,13 +9847,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10005,13 +9880,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -10049,7 +9924,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -10092,7 +9967,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -10154,7 +10029,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -10180,13 +10055,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10257,13 +10132,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -10288,14 +10163,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -10364,7 +10239,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -10467,7 +10342,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -10570,7 +10445,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
@@ -10601,14 +10476,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>102</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -10677,10 +10552,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10780,10 +10655,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10885,10 +10760,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10928,7 +10803,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -10990,10 +10865,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11019,7 +10894,7 @@
         <v>123</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>102</v>
@@ -11093,13 +10968,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -11124,14 +10999,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -11200,10 +11075,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11303,10 +11178,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11314,7 +11189,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -11406,13 +11281,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -11437,14 +11312,14 @@
         <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -11513,10 +11388,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11616,10 +11491,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11721,10 +11596,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11764,7 +11639,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -11826,10 +11701,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11852,13 +11727,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11929,13 +11804,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -11960,14 +11835,14 @@
         <v>93</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -12036,10 +11911,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12139,10 +12014,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12244,10 +12119,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12287,7 +12162,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -12349,10 +12224,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12378,10 +12253,10 @@
         <v>169</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12408,13 +12283,13 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -12452,10 +12327,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12495,7 +12370,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -12557,10 +12432,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12583,13 +12458,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12660,7 +12535,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
@@ -12691,16 +12566,16 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -12769,10 +12644,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12872,10 +12747,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12977,10 +12852,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13020,7 +12895,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -13082,10 +12957,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13108,16 +12983,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13187,7 +13062,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
@@ -13218,14 +13093,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -13294,10 +13169,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13397,10 +13272,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13502,10 +13377,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13545,7 +13420,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -13607,10 +13482,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13636,10 +13511,10 @@
         <v>169</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13666,13 +13541,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -13710,13 +13585,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -13741,14 +13616,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -13817,10 +13692,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13920,10 +13795,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14025,10 +13900,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14068,7 +13943,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -14130,10 +14005,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14159,10 +14034,10 @@
         <v>169</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14189,13 +14064,13 @@
         <v>77</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>77</v>
@@ -14233,13 +14108,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -14264,14 +14139,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -14340,10 +14215,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14443,10 +14318,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14548,10 +14423,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14591,7 +14466,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -14653,10 +14528,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14682,10 +14557,10 @@
         <v>169</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14712,13 +14587,13 @@
         <v>77</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>77</v>
@@ -14756,13 +14631,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -14787,14 +14662,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -14863,10 +14738,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14966,10 +14841,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15069,13 +14944,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -15100,14 +14975,14 @@
         <v>93</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -15176,10 +15051,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15279,10 +15154,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15384,10 +15259,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15427,7 +15302,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -15489,10 +15364,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15515,13 +15390,13 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15592,10 +15467,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15635,7 +15510,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -15697,10 +15572,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15723,13 +15598,13 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15800,13 +15675,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -15831,14 +15706,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -15907,10 +15782,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16010,10 +15885,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16115,10 +15990,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16158,7 +16033,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -16220,10 +16095,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16249,10 +16124,10 @@
         <v>87</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16323,13 +16198,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -16354,14 +16229,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -16430,10 +16305,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16533,10 +16408,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16638,10 +16513,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16681,7 +16556,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -16743,10 +16618,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16772,10 +16647,10 @@
         <v>87</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16846,13 +16721,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -16877,14 +16752,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -16953,10 +16828,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17056,10 +16931,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17161,10 +17036,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17204,7 +17079,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -17266,10 +17141,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17292,13 +17167,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -17369,7 +17244,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>113</v>
@@ -17412,7 +17287,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>77</v>
@@ -17474,7 +17349,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>122</v>
@@ -17500,13 +17375,13 @@
         <v>77</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -17577,13 +17452,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>77</v>
@@ -17608,14 +17483,14 @@
         <v>93</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>77</v>
@@ -17684,7 +17559,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>105</v>
@@ -17787,7 +17662,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>107</v>
@@ -17890,13 +17765,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -17921,14 +17796,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -17997,10 +17872,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18100,10 +17975,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18205,10 +18080,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18248,7 +18123,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -18310,10 +18185,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18339,10 +18214,10 @@
         <v>169</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18369,13 +18244,13 @@
         <v>77</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -18413,7 +18288,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
@@ -18444,14 +18319,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -18520,10 +18395,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18623,10 +18498,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18728,10 +18603,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -18771,7 +18646,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -18833,10 +18708,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -18862,10 +18737,10 @@
         <v>169</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -18892,13 +18767,13 @@
         <v>77</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>77</v>
@@ -18936,13 +18811,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -18967,14 +18842,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -19043,10 +18918,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19146,10 +19021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19251,10 +19126,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19294,7 +19169,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -19356,10 +19231,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19382,13 +19257,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -19459,13 +19334,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -19490,14 +19365,14 @@
         <v>93</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -19566,10 +19441,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19669,10 +19544,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -19774,10 +19649,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -19817,7 +19692,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -19879,10 +19754,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -19908,10 +19783,10 @@
         <v>169</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -19938,13 +19813,13 @@
         <v>77</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>77</v>
@@ -19982,13 +19857,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -20013,14 +19888,14 @@
         <v>93</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -20089,10 +19964,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20192,10 +20067,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20297,10 +20172,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20340,7 +20215,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -20402,10 +20277,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20428,13 +20303,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -20461,13 +20336,13 @@
         <v>77</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>77</v>
@@ -20505,13 +20380,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -20536,14 +20411,14 @@
         <v>93</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -20612,10 +20487,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -20715,10 +20590,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -20818,13 +20693,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>77</v>
@@ -20849,14 +20724,14 @@
         <v>93</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>77</v>
@@ -20925,10 +20800,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21028,10 +20903,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -21133,10 +21008,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21176,7 +21051,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>77</v>
@@ -21238,10 +21113,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -21264,13 +21139,13 @@
         <v>77</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -21341,13 +21216,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>77</v>
@@ -21372,14 +21247,14 @@
         <v>93</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>77</v>
@@ -21448,10 +21323,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -21551,10 +21426,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -21656,10 +21531,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -21699,7 +21574,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>77</v>
@@ -21761,10 +21636,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -21790,10 +21665,10 @@
         <v>169</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -21820,13 +21695,13 @@
         <v>77</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>502</v>
+        <v>77</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>503</v>
+        <v>77</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>77</v>
@@ -21864,13 +21739,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -21895,14 +21770,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -21971,10 +21846,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -22074,10 +21949,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22179,10 +22054,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22222,7 +22097,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -22284,10 +22159,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -22313,10 +22188,10 @@
         <v>87</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -22387,10 +22262,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -22430,7 +22305,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -22492,10 +22367,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -22518,13 +22393,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -22595,13 +22470,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -22626,14 +22501,14 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -22702,10 +22577,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22805,10 +22680,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22910,10 +22785,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -22953,7 +22828,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -23015,10 +22890,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -23044,10 +22919,10 @@
         <v>87</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -23118,13 +22993,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -23149,14 +23024,14 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -23225,10 +23100,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -23328,10 +23203,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -23433,10 +23308,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -23476,7 +23351,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -23538,10 +23413,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -23567,10 +23442,10 @@
         <v>169</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -23597,13 +23472,13 @@
         <v>77</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>536</v>
+        <v>77</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>537</v>
+        <v>77</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>77</v>
@@ -23641,13 +23516,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -23672,14 +23547,14 @@
         <v>93</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -23748,10 +23623,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23851,10 +23726,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23956,10 +23831,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23999,7 +23874,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -24061,10 +23936,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -24090,10 +23965,10 @@
         <v>147</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -24164,13 +24039,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -24195,14 +24070,14 @@
         <v>93</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -24271,10 +24146,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -24374,10 +24249,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -24479,10 +24354,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -24522,7 +24397,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -24584,10 +24459,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24613,10 +24488,10 @@
         <v>147</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -24687,13 +24562,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -24718,14 +24593,14 @@
         <v>93</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -24794,10 +24669,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24897,10 +24772,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -25002,10 +24877,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -25045,7 +24920,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -25107,10 +24982,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -25136,10 +25011,10 @@
         <v>87</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -25210,13 +25085,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -25241,14 +25116,14 @@
         <v>93</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -25317,10 +25192,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -25420,10 +25295,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -25525,10 +25400,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -25568,7 +25443,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -25630,10 +25505,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -25659,10 +25534,10 @@
         <v>87</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -25733,13 +25608,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -25764,14 +25639,14 @@
         <v>93</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -25840,10 +25715,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25943,10 +25818,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -26048,10 +25923,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -26091,7 +25966,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -26153,10 +26028,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -26179,13 +26054,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -26256,13 +26131,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>77</v>
@@ -26287,14 +26162,14 @@
         <v>93</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -26363,10 +26238,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -26466,10 +26341,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -26571,10 +26446,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -26614,7 +26489,7 @@
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>77</v>
@@ -26676,10 +26551,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -26702,13 +26577,13 @@
         <v>77</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -26779,13 +26654,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>77</v>
@@ -26810,14 +26685,14 @@
         <v>93</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>77</v>
@@ -26886,10 +26761,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -26989,10 +26864,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -27092,13 +26967,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>77</v>
@@ -27123,14 +26998,14 @@
         <v>93</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>77</v>
@@ -27199,10 +27074,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -27302,10 +27177,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -27407,10 +27282,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -27450,7 +27325,7 @@
       </c>
       <c r="Q229" s="2"/>
       <c r="R229" t="s" s="2">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="S229" t="s" s="2">
         <v>77</v>
@@ -27512,10 +27387,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -27541,10 +27416,10 @@
         <v>158</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -27615,10 +27490,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C231" t="s" s="2">
         <v>100</v>
@@ -27646,14 +27521,14 @@
         <v>93</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>77</v>
@@ -27722,10 +27597,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -27825,10 +27700,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -27930,10 +27805,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -27973,7 +27848,7 @@
       </c>
       <c r="Q234" s="2"/>
       <c r="R234" t="s" s="2">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>77</v>
@@ -28035,10 +27910,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -28064,10 +27939,10 @@
         <v>123</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -28138,13 +28013,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="D236" t="s" s="2">
         <v>77</v>
@@ -28169,14 +28044,14 @@
         <v>93</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>77</v>
@@ -28245,10 +28120,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -28348,10 +28223,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -28453,10 +28328,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -28496,7 +28371,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -28558,10 +28433,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -28587,10 +28462,10 @@
         <v>136</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -28661,13 +28536,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>77</v>
@@ -28692,14 +28567,14 @@
         <v>93</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -28768,10 +28643,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -28871,10 +28746,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -28976,10 +28851,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -29019,7 +28894,7 @@
       </c>
       <c r="Q244" s="2"/>
       <c r="R244" t="s" s="2">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="S244" t="s" s="2">
         <v>77</v>
@@ -29081,10 +28956,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -29107,13 +28982,13 @@
         <v>77</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -29184,13 +29059,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="D246" t="s" s="2">
         <v>77</v>
@@ -29215,14 +29090,14 @@
         <v>93</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" t="s" s="2">
-        <v>644</v>
+        <v>614</v>
       </c>
       <c r="P246" t="s" s="2">
         <v>77</v>
@@ -29291,10 +29166,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -29394,10 +29269,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>646</v>
+        <v>616</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -29499,10 +29374,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -29542,7 +29417,7 @@
       </c>
       <c r="Q249" s="2"/>
       <c r="R249" t="s" s="2">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="S249" t="s" s="2">
         <v>77</v>
@@ -29604,10 +29479,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -29630,13 +29505,13 @@
         <v>77</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
@@ -29707,13 +29582,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="D251" t="s" s="2">
         <v>77</v>
@@ -29738,14 +29613,14 @@
         <v>93</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>77</v>
@@ -29814,10 +29689,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -29917,10 +29792,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -30022,10 +29897,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -30065,7 +29940,7 @@
       </c>
       <c r="Q254" s="2"/>
       <c r="R254" t="s" s="2">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="S254" t="s" s="2">
         <v>77</v>
@@ -30127,10 +30002,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -30153,13 +30028,13 @@
         <v>77</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -30230,13 +30105,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>77</v>
@@ -30261,14 +30136,14 @@
         <v>93</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="P256" t="s" s="2">
         <v>77</v>
@@ -30337,10 +30212,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -30440,10 +30315,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -30545,10 +30420,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -30588,7 +30463,7 @@
       </c>
       <c r="Q259" s="2"/>
       <c r="R259" t="s" s="2">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>77</v>
@@ -30650,10 +30525,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>671</v>
+        <v>641</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -30676,13 +30551,13 @@
         <v>77</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -30753,13 +30628,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="D261" t="s" s="2">
         <v>77</v>
@@ -30784,14 +30659,14 @@
         <v>93</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="P261" t="s" s="2">
         <v>77</v>
@@ -30860,10 +30735,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -30963,10 +30838,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -31068,10 +30943,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -31111,7 +30986,7 @@
       </c>
       <c r="Q264" s="2"/>
       <c r="R264" t="s" s="2">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="S264" t="s" s="2">
         <v>77</v>
@@ -31173,10 +31048,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -31199,13 +31074,13 @@
         <v>77</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -31276,13 +31151,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="D266" t="s" s="2">
         <v>77</v>
@@ -31307,14 +31182,14 @@
         <v>93</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="P266" t="s" s="2">
         <v>77</v>
@@ -31383,10 +31258,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -31486,10 +31361,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -31591,10 +31466,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -31634,7 +31509,7 @@
       </c>
       <c r="Q269" s="2"/>
       <c r="R269" t="s" s="2">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="S269" t="s" s="2">
         <v>77</v>
@@ -31696,10 +31571,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -31725,10 +31600,10 @@
         <v>87</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -31799,13 +31674,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>77</v>
@@ -31830,14 +31705,14 @@
         <v>93</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>77</v>
@@ -31906,10 +31781,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -32009,10 +31884,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -32114,10 +31989,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -32157,7 +32032,7 @@
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" t="s" s="2">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="S274" t="s" s="2">
         <v>77</v>
@@ -32219,10 +32094,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -32248,10 +32123,10 @@
         <v>136</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -32322,13 +32197,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="D276" t="s" s="2">
         <v>77</v>
@@ -32353,14 +32228,14 @@
         <v>93</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="P276" t="s" s="2">
         <v>77</v>
@@ -32429,10 +32304,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -32532,10 +32407,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -32637,10 +32512,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -32680,7 +32555,7 @@
       </c>
       <c r="Q279" s="2"/>
       <c r="R279" t="s" s="2">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="S279" t="s" s="2">
         <v>77</v>
@@ -32742,10 +32617,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -32768,13 +32643,13 @@
         <v>77</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
@@ -32845,13 +32720,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>77</v>
@@ -32876,14 +32751,14 @@
         <v>93</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="P281" t="s" s="2">
         <v>77</v>
@@ -32952,10 +32827,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -33055,10 +32930,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -33160,10 +33035,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -33203,7 +33078,7 @@
       </c>
       <c r="Q284" s="2"/>
       <c r="R284" t="s" s="2">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="S284" t="s" s="2">
         <v>77</v>
@@ -33265,10 +33140,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -33291,13 +33166,13 @@
         <v>77</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
@@ -33368,13 +33243,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D286" t="s" s="2">
         <v>77</v>
@@ -33399,14 +33274,14 @@
         <v>93</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="P286" t="s" s="2">
         <v>77</v>
@@ -33475,10 +33350,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -33578,10 +33453,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -33683,10 +33558,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>729</v>
+        <v>699</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -33726,7 +33601,7 @@
       </c>
       <c r="Q289" s="2"/>
       <c r="R289" t="s" s="2">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="S289" t="s" s="2">
         <v>77</v>
@@ -33788,10 +33663,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -33817,10 +33692,10 @@
         <v>87</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -33891,13 +33766,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D291" t="s" s="2">
         <v>77</v>
@@ -33922,14 +33797,14 @@
         <v>93</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" t="s" s="2">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="P291" t="s" s="2">
         <v>77</v>
@@ -33998,10 +33873,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -34101,10 +33976,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -34206,10 +34081,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -34249,7 +34124,7 @@
       </c>
       <c r="Q294" s="2"/>
       <c r="R294" t="s" s="2">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="S294" t="s" s="2">
         <v>77</v>
@@ -34311,10 +34186,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -34337,13 +34212,13 @@
         <v>77</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -34414,10 +34289,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -34457,7 +34332,7 @@
       </c>
       <c r="Q296" s="2"/>
       <c r="R296" t="s" s="2">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="S296" t="s" s="2">
         <v>77</v>
@@ -34519,10 +34394,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>743</v>
+        <v>713</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -34545,13 +34420,13 @@
         <v>77</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
@@ -34622,7 +34497,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>113</v>
@@ -34665,7 +34540,7 @@
       </c>
       <c r="Q298" s="2"/>
       <c r="R298" t="s" s="2">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="S298" t="s" s="2">
         <v>77</v>
@@ -34727,7 +34602,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>746</v>
+        <v>716</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>122</v>
@@ -34753,13 +34628,13 @@
         <v>77</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
@@ -34830,13 +34705,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>747</v>
+        <v>717</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>748</v>
+        <v>718</v>
       </c>
       <c r="D300" t="s" s="2">
         <v>77</v>
@@ -34861,16 +34736,16 @@
         <v>93</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>749</v>
+        <v>719</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>751</v>
+        <v>721</v>
       </c>
       <c r="O300" t="s" s="2">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="P300" t="s" s="2">
         <v>77</v>
@@ -34939,7 +34814,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>105</v>
@@ -35042,7 +34917,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>754</v>
+        <v>724</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>107</v>
@@ -35053,7 +34928,7 @@
       </c>
       <c r="E302" s="2"/>
       <c r="F302" t="s" s="2">
-        <v>755</v>
+        <v>725</v>
       </c>
       <c r="G302" t="s" s="2">
         <v>79</v>
@@ -35145,13 +35020,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="D303" t="s" s="2">
         <v>77</v>
@@ -35176,14 +35051,14 @@
         <v>93</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="N303" s="2"/>
       <c r="O303" t="s" s="2">
-        <v>760</v>
+        <v>730</v>
       </c>
       <c r="P303" t="s" s="2">
         <v>77</v>
@@ -35252,10 +35127,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>761</v>
+        <v>731</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -35355,10 +35230,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>762</v>
+        <v>732</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -35460,10 +35335,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>763</v>
+        <v>733</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -35503,7 +35378,7 @@
       </c>
       <c r="Q306" s="2"/>
       <c r="R306" t="s" s="2">
-        <v>764</v>
+        <v>734</v>
       </c>
       <c r="S306" t="s" s="2">
         <v>77</v>
@@ -35565,10 +35440,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -35591,13 +35466,13 @@
         <v>77</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
@@ -35668,7 +35543,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>107</v>
@@ -35699,14 +35574,14 @@
         <v>93</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="N308" s="2"/>
       <c r="O308" t="s" s="2">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="P308" t="s" s="2">
         <v>77</v>
@@ -35775,10 +35650,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>771</v>
+        <v>741</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -35878,10 +35753,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>772</v>
+        <v>742</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -35983,10 +35858,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -36026,7 +35901,7 @@
       </c>
       <c r="Q311" s="2"/>
       <c r="R311" t="s" s="2">
-        <v>774</v>
+        <v>744</v>
       </c>
       <c r="S311" t="s" s="2">
         <v>77</v>
@@ -36088,10 +35963,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -36117,10 +35992,10 @@
         <v>169</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
@@ -36147,13 +36022,13 @@
         <v>77</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>776</v>
+        <v>77</v>
       </c>
       <c r="Z312" t="s" s="2">
-        <v>777</v>
+        <v>77</v>
       </c>
       <c r="AA312" t="s" s="2">
         <v>77</v>
@@ -36191,13 +36066,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>77</v>
@@ -36222,14 +36097,14 @@
         <v>93</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="N313" s="2"/>
       <c r="O313" t="s" s="2">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="P313" t="s" s="2">
         <v>77</v>
@@ -36298,10 +36173,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -36401,10 +36276,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -36504,13 +36379,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D316" t="s" s="2">
         <v>77</v>
@@ -36535,14 +36410,14 @@
         <v>93</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="N316" s="2"/>
       <c r="O316" t="s" s="2">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="P316" t="s" s="2">
         <v>77</v>
@@ -36611,10 +36486,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -36714,10 +36589,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -36819,10 +36694,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -36862,7 +36737,7 @@
       </c>
       <c r="Q319" s="2"/>
       <c r="R319" t="s" s="2">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="S319" t="s" s="2">
         <v>77</v>
@@ -36924,10 +36799,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -36950,13 +36825,13 @@
         <v>77</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
@@ -37027,13 +36902,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>77</v>
@@ -37058,14 +36933,14 @@
         <v>93</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" t="s" s="2">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="P321" t="s" s="2">
         <v>77</v>
@@ -37134,10 +37009,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -37237,10 +37112,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -37342,10 +37217,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -37385,7 +37260,7 @@
       </c>
       <c r="Q324" s="2"/>
       <c r="R324" t="s" s="2">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="S324" t="s" s="2">
         <v>77</v>
@@ -37447,10 +37322,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -37476,10 +37351,10 @@
         <v>169</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
@@ -37506,13 +37381,13 @@
         <v>77</v>
       </c>
       <c r="X325" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>802</v>
+        <v>77</v>
       </c>
       <c r="Z325" t="s" s="2">
-        <v>803</v>
+        <v>77</v>
       </c>
       <c r="AA325" t="s" s="2">
         <v>77</v>
@@ -37550,10 +37425,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>804</v>
+        <v>770</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -37593,7 +37468,7 @@
       </c>
       <c r="Q326" s="2"/>
       <c r="R326" t="s" s="2">
-        <v>805</v>
+        <v>771</v>
       </c>
       <c r="S326" t="s" s="2">
         <v>77</v>
@@ -37655,10 +37530,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>806</v>
+        <v>772</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -37681,13 +37556,13 @@
         <v>77</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
@@ -37758,13 +37633,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>807</v>
+        <v>773</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>808</v>
+        <v>774</v>
       </c>
       <c r="D328" t="s" s="2">
         <v>77</v>
@@ -37789,14 +37664,14 @@
         <v>93</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>809</v>
+        <v>775</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>810</v>
+        <v>776</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
-        <v>811</v>
+        <v>777</v>
       </c>
       <c r="P328" t="s" s="2">
         <v>77</v>
@@ -37865,10 +37740,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>812</v>
+        <v>778</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -37968,10 +37843,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>813</v>
+        <v>779</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -38073,10 +37948,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>814</v>
+        <v>780</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -38116,7 +37991,7 @@
       </c>
       <c r="Q331" s="2"/>
       <c r="R331" t="s" s="2">
-        <v>815</v>
+        <v>781</v>
       </c>
       <c r="S331" t="s" s="2">
         <v>77</v>
@@ -38178,10 +38053,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -38207,10 +38082,10 @@
         <v>169</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>809</v>
+        <v>775</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>810</v>
+        <v>776</v>
       </c>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
@@ -38237,13 +38112,13 @@
         <v>77</v>
       </c>
       <c r="X332" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y332" t="s" s="2">
-        <v>817</v>
+        <v>77</v>
       </c>
       <c r="Z332" t="s" s="2">
-        <v>818</v>
+        <v>77</v>
       </c>
       <c r="AA332" t="s" s="2">
         <v>77</v>
@@ -38281,13 +38156,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D333" t="s" s="2">
         <v>77</v>
@@ -38312,14 +38187,14 @@
         <v>93</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>820</v>
+        <v>784</v>
       </c>
       <c r="N333" s="2"/>
       <c r="O333" t="s" s="2">
-        <v>821</v>
+        <v>785</v>
       </c>
       <c r="P333" t="s" s="2">
         <v>77</v>
@@ -38388,10 +38263,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -38491,10 +38366,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>823</v>
+        <v>787</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -38596,10 +38471,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -38639,7 +38514,7 @@
       </c>
       <c r="Q336" s="2"/>
       <c r="R336" t="s" s="2">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="S336" t="s" s="2">
         <v>77</v>
@@ -38701,10 +38576,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>826</v>
+        <v>790</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -38730,10 +38605,10 @@
         <v>87</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>820</v>
+        <v>784</v>
       </c>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
@@ -38804,13 +38679,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>827</v>
+        <v>791</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>828</v>
+        <v>792</v>
       </c>
       <c r="D338" t="s" s="2">
         <v>77</v>
@@ -38835,14 +38710,14 @@
         <v>93</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="N338" s="2"/>
       <c r="O338" t="s" s="2">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="P338" t="s" s="2">
         <v>77</v>
@@ -38911,10 +38786,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>832</v>
+        <v>796</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -39014,10 +38889,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>833</v>
+        <v>797</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -39119,10 +38994,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -39162,7 +39037,7 @@
       </c>
       <c r="Q341" s="2"/>
       <c r="R341" t="s" s="2">
-        <v>835</v>
+        <v>799</v>
       </c>
       <c r="S341" t="s" s="2">
         <v>77</v>
@@ -39224,10 +39099,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -39253,10 +39128,10 @@
         <v>169</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
@@ -39283,13 +39158,13 @@
         <v>77</v>
       </c>
       <c r="X342" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y342" t="s" s="2">
-        <v>837</v>
+        <v>77</v>
       </c>
       <c r="Z342" t="s" s="2">
-        <v>838</v>
+        <v>77</v>
       </c>
       <c r="AA342" t="s" s="2">
         <v>77</v>
@@ -39327,13 +39202,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>839</v>
+        <v>801</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="D343" t="s" s="2">
         <v>77</v>
@@ -39358,14 +39233,14 @@
         <v>93</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>840</v>
+        <v>802</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="N343" s="2"/>
       <c r="O343" t="s" s="2">
-        <v>842</v>
+        <v>804</v>
       </c>
       <c r="P343" t="s" s="2">
         <v>77</v>
@@ -39434,10 +39309,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>843</v>
+        <v>805</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -39537,10 +39412,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>844</v>
+        <v>806</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -39642,10 +39517,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>845</v>
+        <v>807</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
@@ -39685,7 +39560,7 @@
       </c>
       <c r="Q346" s="2"/>
       <c r="R346" t="s" s="2">
-        <v>846</v>
+        <v>808</v>
       </c>
       <c r="S346" t="s" s="2">
         <v>77</v>
@@ -39747,10 +39622,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>847</v>
+        <v>809</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -39773,13 +39648,13 @@
         <v>77</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>848</v>
+        <v>810</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>840</v>
+        <v>802</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="N347" s="2"/>
       <c r="O347" s="2"/>
@@ -39850,13 +39725,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>850</v>
+        <v>812</v>
       </c>
       <c r="D348" t="s" s="2">
         <v>77</v>
@@ -39881,14 +39756,14 @@
         <v>93</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="N348" s="2"/>
       <c r="O348" t="s" s="2">
-        <v>852</v>
+        <v>814</v>
       </c>
       <c r="P348" t="s" s="2">
         <v>77</v>
@@ -39957,10 +39832,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>853</v>
+        <v>815</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -40060,10 +39935,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>854</v>
+        <v>816</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
@@ -40165,10 +40040,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -40208,7 +40083,7 @@
       </c>
       <c r="Q351" s="2"/>
       <c r="R351" t="s" s="2">
-        <v>856</v>
+        <v>818</v>
       </c>
       <c r="S351" t="s" s="2">
         <v>77</v>
@@ -40270,10 +40145,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" t="s" s="2">
@@ -40299,10 +40174,10 @@
         <v>87</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
@@ -40373,13 +40248,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>858</v>
+        <v>820</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>859</v>
+        <v>821</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>77</v>
@@ -40404,14 +40279,14 @@
         <v>93</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>860</v>
+        <v>822</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>861</v>
+        <v>823</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" t="s" s="2">
-        <v>862</v>
+        <v>824</v>
       </c>
       <c r="P353" t="s" s="2">
         <v>77</v>
@@ -40480,10 +40355,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>863</v>
+        <v>825</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" t="s" s="2">
@@ -40583,10 +40458,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>864</v>
+        <v>826</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s" s="2">
@@ -40688,10 +40563,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>865</v>
+        <v>827</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" t="s" s="2">
@@ -40731,7 +40606,7 @@
       </c>
       <c r="Q356" s="2"/>
       <c r="R356" t="s" s="2">
-        <v>866</v>
+        <v>828</v>
       </c>
       <c r="S356" t="s" s="2">
         <v>77</v>
@@ -40793,10 +40668,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>867</v>
+        <v>829</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" t="s" s="2">
@@ -40819,13 +40694,13 @@
         <v>77</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>860</v>
+        <v>822</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>861</v>
+        <v>823</v>
       </c>
       <c r="N357" s="2"/>
       <c r="O357" s="2"/>
@@ -40896,13 +40771,13 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>869</v>
+        <v>831</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>870</v>
+        <v>832</v>
       </c>
       <c r="D358" t="s" s="2">
         <v>77</v>
@@ -40927,14 +40802,14 @@
         <v>93</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>872</v>
+        <v>834</v>
       </c>
       <c r="N358" s="2"/>
       <c r="O358" t="s" s="2">
-        <v>873</v>
+        <v>835</v>
       </c>
       <c r="P358" t="s" s="2">
         <v>77</v>
@@ -41003,10 +40878,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>874</v>
+        <v>836</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
@@ -41106,10 +40981,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>875</v>
+        <v>837</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" t="s" s="2">
@@ -41211,10 +41086,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>876</v>
+        <v>838</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" t="s" s="2">
@@ -41254,7 +41129,7 @@
       </c>
       <c r="Q361" s="2"/>
       <c r="R361" t="s" s="2">
-        <v>877</v>
+        <v>839</v>
       </c>
       <c r="S361" t="s" s="2">
         <v>77</v>
@@ -41316,10 +41191,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>878</v>
+        <v>840</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" t="s" s="2">
@@ -41342,13 +41217,13 @@
         <v>77</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>872</v>
+        <v>834</v>
       </c>
       <c r="N362" s="2"/>
       <c r="O362" s="2"/>
@@ -41419,13 +41294,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>879</v>
+        <v>841</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>880</v>
+        <v>842</v>
       </c>
       <c r="D363" t="s" s="2">
         <v>77</v>
@@ -41450,14 +41325,14 @@
         <v>93</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="N363" s="2"/>
       <c r="O363" t="s" s="2">
-        <v>881</v>
+        <v>843</v>
       </c>
       <c r="P363" t="s" s="2">
         <v>77</v>
@@ -41526,10 +41401,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>882</v>
+        <v>844</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" t="s" s="2">
@@ -41629,10 +41504,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>883</v>
+        <v>845</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" t="s" s="2">
@@ -41734,10 +41609,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>884</v>
+        <v>846</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" t="s" s="2">
@@ -41777,7 +41652,7 @@
       </c>
       <c r="Q366" s="2"/>
       <c r="R366" t="s" s="2">
-        <v>885</v>
+        <v>847</v>
       </c>
       <c r="S366" t="s" s="2">
         <v>77</v>
@@ -41839,10 +41714,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>886</v>
+        <v>848</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" t="s" s="2">
@@ -41868,10 +41743,10 @@
         <v>87</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="N367" s="2"/>
       <c r="O367" s="2"/>
@@ -41942,13 +41817,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>887</v>
+        <v>849</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>888</v>
+        <v>850</v>
       </c>
       <c r="D368" t="s" s="2">
         <v>77</v>
@@ -41973,14 +41848,14 @@
         <v>93</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>889</v>
+        <v>851</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>890</v>
+        <v>852</v>
       </c>
       <c r="N368" s="2"/>
       <c r="O368" t="s" s="2">
-        <v>891</v>
+        <v>853</v>
       </c>
       <c r="P368" t="s" s="2">
         <v>77</v>
@@ -42049,10 +41924,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>892</v>
+        <v>854</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" t="s" s="2">
@@ -42152,10 +42027,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>893</v>
+        <v>855</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" t="s" s="2">
@@ -42257,10 +42132,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>894</v>
+        <v>856</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" t="s" s="2">
@@ -42300,7 +42175,7 @@
       </c>
       <c r="Q371" s="2"/>
       <c r="R371" t="s" s="2">
-        <v>895</v>
+        <v>857</v>
       </c>
       <c r="S371" t="s" s="2">
         <v>77</v>
@@ -42362,10 +42237,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>896</v>
+        <v>858</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" t="s" s="2">
@@ -42391,10 +42266,10 @@
         <v>169</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>889</v>
+        <v>851</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>890</v>
+        <v>852</v>
       </c>
       <c r="N372" s="2"/>
       <c r="O372" s="2"/>
@@ -42421,13 +42296,13 @@
         <v>77</v>
       </c>
       <c r="X372" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y372" t="s" s="2">
-        <v>897</v>
+        <v>77</v>
       </c>
       <c r="Z372" t="s" s="2">
-        <v>898</v>
+        <v>77</v>
       </c>
       <c r="AA372" t="s" s="2">
         <v>77</v>
@@ -42465,13 +42340,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>899</v>
+        <v>859</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="D373" t="s" s="2">
         <v>77</v>
@@ -42496,14 +42371,14 @@
         <v>93</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="N373" s="2"/>
       <c r="O373" t="s" s="2">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="P373" t="s" s="2">
         <v>77</v>
@@ -42572,10 +42447,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" t="s" s="2">
@@ -42675,10 +42550,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>905</v>
+        <v>865</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
@@ -42780,10 +42655,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>906</v>
+        <v>866</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" t="s" s="2">
@@ -42823,7 +42698,7 @@
       </c>
       <c r="Q376" s="2"/>
       <c r="R376" t="s" s="2">
-        <v>907</v>
+        <v>867</v>
       </c>
       <c r="S376" t="s" s="2">
         <v>77</v>
@@ -42885,10 +42760,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" t="s" s="2">
@@ -42914,10 +42789,10 @@
         <v>169</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="N377" s="2"/>
       <c r="O377" s="2"/>
@@ -42944,13 +42819,13 @@
         <v>77</v>
       </c>
       <c r="X377" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y377" t="s" s="2">
-        <v>909</v>
+        <v>77</v>
       </c>
       <c r="Z377" t="s" s="2">
-        <v>910</v>
+        <v>77</v>
       </c>
       <c r="AA377" t="s" s="2">
         <v>77</v>
@@ -42988,13 +42863,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>911</v>
+        <v>869</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>912</v>
+        <v>870</v>
       </c>
       <c r="D378" t="s" s="2">
         <v>77</v>
@@ -43019,14 +42894,14 @@
         <v>93</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>913</v>
+        <v>871</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>914</v>
+        <v>872</v>
       </c>
       <c r="N378" s="2"/>
       <c r="O378" t="s" s="2">
-        <v>915</v>
+        <v>873</v>
       </c>
       <c r="P378" t="s" s="2">
         <v>77</v>
@@ -43095,10 +42970,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>916</v>
+        <v>874</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" t="s" s="2">
@@ -43198,10 +43073,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" t="s" s="2">
@@ -43303,10 +43178,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>918</v>
+        <v>876</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" t="s" s="2">
@@ -43346,7 +43221,7 @@
       </c>
       <c r="Q381" s="2"/>
       <c r="R381" t="s" s="2">
-        <v>919</v>
+        <v>877</v>
       </c>
       <c r="S381" t="s" s="2">
         <v>77</v>
@@ -43408,10 +43283,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" t="s" s="2">
@@ -43434,13 +43309,13 @@
         <v>77</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>921</v>
+        <v>879</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>913</v>
+        <v>871</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>914</v>
+        <v>872</v>
       </c>
       <c r="N382" s="2"/>
       <c r="O382" s="2"/>
@@ -43511,13 +43386,13 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>922</v>
+        <v>880</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>923</v>
+        <v>881</v>
       </c>
       <c r="D383" t="s" s="2">
         <v>77</v>
@@ -43542,14 +43417,14 @@
         <v>93</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>924</v>
+        <v>882</v>
       </c>
       <c r="N383" s="2"/>
       <c r="O383" t="s" s="2">
-        <v>925</v>
+        <v>883</v>
       </c>
       <c r="P383" t="s" s="2">
         <v>77</v>
@@ -43618,10 +43493,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" t="s" s="2">
@@ -43721,10 +43596,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>927</v>
+        <v>885</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" t="s" s="2">
@@ -43826,10 +43701,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>928</v>
+        <v>886</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" t="s" s="2">
@@ -43869,7 +43744,7 @@
       </c>
       <c r="Q386" s="2"/>
       <c r="R386" t="s" s="2">
-        <v>929</v>
+        <v>887</v>
       </c>
       <c r="S386" t="s" s="2">
         <v>77</v>
@@ -43931,10 +43806,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>930</v>
+        <v>888</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" t="s" s="2">
@@ -43960,10 +43835,10 @@
         <v>87</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>924</v>
+        <v>882</v>
       </c>
       <c r="N387" s="2"/>
       <c r="O387" s="2"/>
@@ -44034,13 +43909,13 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>931</v>
+        <v>889</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>932</v>
+        <v>890</v>
       </c>
       <c r="D388" t="s" s="2">
         <v>77</v>
@@ -44065,14 +43940,14 @@
         <v>93</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>933</v>
+        <v>891</v>
       </c>
       <c r="M388" t="s" s="2">
-        <v>934</v>
+        <v>892</v>
       </c>
       <c r="N388" s="2"/>
       <c r="O388" t="s" s="2">
-        <v>935</v>
+        <v>893</v>
       </c>
       <c r="P388" t="s" s="2">
         <v>77</v>
@@ -44141,10 +44016,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>936</v>
+        <v>894</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" t="s" s="2">
@@ -44244,10 +44119,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>937</v>
+        <v>895</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" t="s" s="2">
@@ -44347,13 +44222,13 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>938</v>
+        <v>896</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>939</v>
+        <v>897</v>
       </c>
       <c r="D391" t="s" s="2">
         <v>77</v>
@@ -44378,10 +44253,10 @@
         <v>93</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>940</v>
+        <v>898</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>941</v>
+        <v>899</v>
       </c>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
@@ -44452,10 +44327,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>942</v>
+        <v>900</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" t="s" s="2">
@@ -44555,10 +44430,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>943</v>
+        <v>901</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" t="s" s="2">
@@ -44660,10 +44535,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>944</v>
+        <v>902</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" t="s" s="2">
@@ -44703,7 +44578,7 @@
       </c>
       <c r="Q394" s="2"/>
       <c r="R394" t="s" s="2">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="S394" t="s" s="2">
         <v>77</v>
@@ -44765,10 +44640,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>946</v>
+        <v>904</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" t="s" s="2">
@@ -44794,13 +44669,13 @@
         <v>87</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>947</v>
+        <v>905</v>
       </c>
       <c r="O395" s="2"/>
       <c r="P395" t="s" s="2">
@@ -44808,7 +44683,7 @@
       </c>
       <c r="Q395" s="2"/>
       <c r="R395" t="s" s="2">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="S395" t="s" s="2">
         <v>77</v>
@@ -44870,13 +44745,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>949</v>
+        <v>907</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>950</v>
+        <v>908</v>
       </c>
       <c r="D396" t="s" s="2">
         <v>77</v>
@@ -44901,14 +44776,14 @@
         <v>93</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>951</v>
+        <v>909</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>952</v>
+        <v>910</v>
       </c>
       <c r="N396" s="2"/>
       <c r="O396" t="s" s="2">
-        <v>953</v>
+        <v>911</v>
       </c>
       <c r="P396" t="s" s="2">
         <v>77</v>
@@ -44977,10 +44852,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>954</v>
+        <v>912</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" t="s" s="2">
@@ -45080,10 +44955,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>955</v>
+        <v>913</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" t="s" s="2">
@@ -45185,10 +45060,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>956</v>
+        <v>914</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" t="s" s="2">
@@ -45228,7 +45103,7 @@
       </c>
       <c r="Q399" s="2"/>
       <c r="R399" t="s" s="2">
-        <v>950</v>
+        <v>908</v>
       </c>
       <c r="S399" t="s" s="2">
         <v>77</v>
@@ -45290,10 +45165,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>957</v>
+        <v>915</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" t="s" s="2">
@@ -45319,10 +45194,10 @@
         <v>169</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>951</v>
+        <v>909</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>952</v>
+        <v>910</v>
       </c>
       <c r="N400" s="2"/>
       <c r="O400" s="2"/>
@@ -45349,11 +45224,11 @@
         <v>77</v>
       </c>
       <c r="X400" t="s" s="2">
-        <v>958</v>
+        <v>916</v>
       </c>
       <c r="Y400" s="2"/>
       <c r="Z400" t="s" s="2">
-        <v>818</v>
+        <v>917</v>
       </c>
       <c r="AA400" t="s" s="2">
         <v>77</v>
@@ -45391,13 +45266,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>959</v>
+        <v>918</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>77</v>
@@ -45422,14 +45297,14 @@
         <v>93</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>960</v>
+        <v>919</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="N401" s="2"/>
       <c r="O401" t="s" s="2">
-        <v>962</v>
+        <v>921</v>
       </c>
       <c r="P401" t="s" s="2">
         <v>77</v>
@@ -45498,10 +45373,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>963</v>
+        <v>922</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" t="s" s="2">
@@ -45601,10 +45476,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" t="s" s="2">
@@ -45706,10 +45581,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>965</v>
+        <v>924</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" t="s" s="2">
@@ -45749,7 +45624,7 @@
       </c>
       <c r="Q404" s="2"/>
       <c r="R404" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S404" t="s" s="2">
         <v>77</v>
@@ -45811,10 +45686,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>966</v>
+        <v>925</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" t="s" s="2">
@@ -45837,13 +45712,13 @@
         <v>77</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>967</v>
+        <v>926</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>960</v>
+        <v>919</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="N405" s="2"/>
       <c r="O405" s="2"/>
@@ -45914,10 +45789,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>968</v>
+        <v>927</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" t="s" s="2">
@@ -45957,7 +45832,7 @@
       </c>
       <c r="Q406" s="2"/>
       <c r="R406" t="s" s="2">
-        <v>969</v>
+        <v>928</v>
       </c>
       <c r="S406" t="s" s="2">
         <v>77</v>
@@ -46019,10 +45894,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>970</v>
+        <v>929</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
@@ -46045,13 +45920,13 @@
         <v>77</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
@@ -46122,13 +45997,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>971</v>
+        <v>930</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>972</v>
+        <v>931</v>
       </c>
       <c r="D408" t="s" s="2">
         <v>77</v>
@@ -46153,14 +46028,14 @@
         <v>93</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>924</v>
+        <v>882</v>
       </c>
       <c r="N408" s="2"/>
       <c r="O408" t="s" s="2">
-        <v>973</v>
+        <v>932</v>
       </c>
       <c r="P408" t="s" s="2">
         <v>77</v>
@@ -46229,10 +46104,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>974</v>
+        <v>933</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" t="s" s="2">
@@ -46332,10 +46207,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>975</v>
+        <v>934</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" t="s" s="2">
@@ -46437,10 +46312,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>976</v>
+        <v>935</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" t="s" s="2">
@@ -46480,7 +46355,7 @@
       </c>
       <c r="Q411" s="2"/>
       <c r="R411" t="s" s="2">
-        <v>977</v>
+        <v>936</v>
       </c>
       <c r="S411" t="s" s="2">
         <v>77</v>
@@ -46542,10 +46417,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>978</v>
+        <v>937</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" t="s" s="2">
@@ -46571,10 +46446,10 @@
         <v>87</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>924</v>
+        <v>882</v>
       </c>
       <c r="N412" s="2"/>
       <c r="O412" s="2"/>
@@ -46645,13 +46520,13 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>979</v>
+        <v>938</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>980</v>
+        <v>939</v>
       </c>
       <c r="D413" t="s" s="2">
         <v>77</v>
@@ -46676,14 +46551,14 @@
         <v>93</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>981</v>
+        <v>940</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>982</v>
+        <v>941</v>
       </c>
       <c r="N413" s="2"/>
       <c r="O413" t="s" s="2">
-        <v>983</v>
+        <v>942</v>
       </c>
       <c r="P413" t="s" s="2">
         <v>77</v>
@@ -46752,10 +46627,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" t="s" s="2">
@@ -46855,10 +46730,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>985</v>
+        <v>944</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" t="s" s="2">
@@ -46960,10 +46835,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>986</v>
+        <v>945</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" t="s" s="2">
@@ -47003,7 +46878,7 @@
       </c>
       <c r="Q416" s="2"/>
       <c r="R416" t="s" s="2">
-        <v>987</v>
+        <v>946</v>
       </c>
       <c r="S416" t="s" s="2">
         <v>77</v>
@@ -47065,10 +46940,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>988</v>
+        <v>947</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" t="s" s="2">
@@ -47091,13 +46966,13 @@
         <v>77</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>989</v>
+        <v>948</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>981</v>
+        <v>940</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>982</v>
+        <v>941</v>
       </c>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -47168,13 +47043,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>990</v>
+        <v>949</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D418" t="s" s="2">
         <v>77</v>
@@ -47199,14 +47074,14 @@
         <v>93</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>991</v>
+        <v>950</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>992</v>
+        <v>951</v>
       </c>
       <c r="N418" s="2"/>
       <c r="O418" t="s" s="2">
-        <v>993</v>
+        <v>952</v>
       </c>
       <c r="P418" t="s" s="2">
         <v>77</v>
@@ -47275,10 +47150,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>994</v>
+        <v>953</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" t="s" s="2">
@@ -47378,10 +47253,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>995</v>
+        <v>954</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" t="s" s="2">
@@ -47483,10 +47358,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>996</v>
+        <v>955</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" t="s" s="2">
@@ -47526,7 +47401,7 @@
       </c>
       <c r="Q421" s="2"/>
       <c r="R421" t="s" s="2">
-        <v>997</v>
+        <v>956</v>
       </c>
       <c r="S421" t="s" s="2">
         <v>77</v>
@@ -47588,10 +47463,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>998</v>
+        <v>957</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" t="s" s="2">
@@ -47614,13 +47489,13 @@
         <v>77</v>
       </c>
       <c r="K422" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>991</v>
+        <v>950</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>992</v>
+        <v>951</v>
       </c>
       <c r="N422" s="2"/>
       <c r="O422" s="2"/>
@@ -47691,7 +47566,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>999</v>
+        <v>958</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>113</v>
@@ -47734,7 +47609,7 @@
       </c>
       <c r="Q423" s="2"/>
       <c r="R423" t="s" s="2">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="S423" t="s" s="2">
         <v>77</v>
@@ -47796,7 +47671,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1001</v>
+        <v>960</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>122</v>
@@ -47822,13 +47697,13 @@
         <v>77</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N424" s="2"/>
       <c r="O424" s="2"/>
@@ -47899,13 +47774,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1002</v>
+        <v>961</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1003</v>
+        <v>962</v>
       </c>
       <c r="D425" t="s" s="2">
         <v>77</v>
@@ -47930,14 +47805,14 @@
         <v>93</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1005</v>
+        <v>964</v>
       </c>
       <c r="N425" s="2"/>
       <c r="O425" t="s" s="2">
-        <v>1006</v>
+        <v>965</v>
       </c>
       <c r="P425" t="s" s="2">
         <v>77</v>
@@ -48006,7 +47881,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1007</v>
+        <v>966</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>105</v>
@@ -48109,7 +47984,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1008</v>
+        <v>967</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>107</v>
@@ -48214,7 +48089,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1009</v>
+        <v>968</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>113</v>
@@ -48319,7 +48194,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1010</v>
+        <v>969</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>122</v>
@@ -48345,13 +48220,13 @@
         <v>77</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N429" s="2"/>
       <c r="O429" s="2"/>
@@ -48553,13 +48428,13 @@
         <v>77</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
